--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>681514.2581666687</v>
+        <v>680867.2856254858</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="D11" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>57.67900616287437</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.56509432741747</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>60.24410049029198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087824</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964391</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998883</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362395</v>
+        <v>0.4251038644362888</v>
       </c>
       <c r="T13" t="n">
-        <v>9.02867510693814</v>
+        <v>9.028675106938195</v>
       </c>
       <c r="U13" t="n">
-        <v>67.5913472788246</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692794</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740432</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298044</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570102</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>24.68690330538614</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>57.67900616287444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417503</v>
+        <v>2.565094327417512</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748833</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
     </row>
     <row r="15">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644363248</v>
+        <v>0.4251038644363172</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938225</v>
+        <v>9.028675106938223</v>
       </c>
       <c r="U16" t="n">
         <v>67.59134727882468</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.18629299084046</v>
+        <v>33.18629299084051</v>
       </c>
       <c r="C17" t="n">
-        <v>16.45497867838804</v>
+        <v>16.4549786783881</v>
       </c>
       <c r="D17" t="n">
-        <v>6.074615754043805</v>
+        <v>6.074615754043862</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473287</v>
+        <v>32.58791875473293</v>
       </c>
       <c r="F17" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998631</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521434</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>20.3314821306148</v>
+        <v>20.33148213061486</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.15695475068122</v>
+        <v>36.15695475068128</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.18629299084051</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C20" t="n">
-        <v>16.4549786783881</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D20" t="n">
-        <v>6.074615754043862</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E20" t="n">
-        <v>32.58791875473293</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
-        <v>56.76374647998631</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521434</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>20.33148213061486</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.15695475068128</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.18629299084051</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C23" t="n">
-        <v>16.4549786783881</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D23" t="n">
-        <v>6.074615754043862</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E23" t="n">
-        <v>32.58791875473293</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F23" t="n">
-        <v>56.76374647998631</v>
+        <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521434</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>20.33148213061486</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.15695475068128</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="24">
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283403</v>
+        <v>193.3941876283402</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520741</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007082</v>
       </c>
       <c r="V29" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W29" t="n">
-        <v>129.514998713126</v>
+        <v>129.5149987131259</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437407</v>
       </c>
       <c r="Y29" t="n">
         <v>165.6719534638072</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670398</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222649</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.9742284625714</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520741</v>
+        <v>6.463580779520711</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140717</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951052</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.0774585999869</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880617</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520741</v>
+        <v>6.463580779520767</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325528991</v>
+        <v>8.307410325528988</v>
       </c>
       <c r="V38" t="n">
         <v>85.39850503054888</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325528988</v>
+        <v>8.307410325528922</v>
       </c>
       <c r="V44" t="n">
         <v>85.39850503054888</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.55966711750014</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="C11" t="n">
-        <v>74.55966711750014</v>
+        <v>201.9091945426962</v>
       </c>
       <c r="D11" t="n">
-        <v>5.471762079045599</v>
+        <v>201.9091945426962</v>
       </c>
       <c r="E11" t="n">
-        <v>5.471762079045599</v>
+        <v>132.8212895042418</v>
       </c>
       <c r="F11" t="n">
-        <v>5.471762079045599</v>
+        <v>63.73338446578738</v>
       </c>
       <c r="G11" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439188</v>
+        <v>103.280117882581</v>
       </c>
       <c r="K11" t="n">
-        <v>35.56706215439188</v>
+        <v>103.280117882581</v>
       </c>
       <c r="L11" t="n">
-        <v>35.56706215439188</v>
+        <v>161.5659892339441</v>
       </c>
       <c r="M11" t="n">
-        <v>35.56706215439188</v>
+        <v>161.5659892339441</v>
       </c>
       <c r="N11" t="n">
-        <v>103.2801178825812</v>
+        <v>161.5659892339441</v>
       </c>
       <c r="O11" t="n">
-        <v>165.8971027405235</v>
+        <v>161.5659892339441</v>
       </c>
       <c r="P11" t="n">
-        <v>165.8971027405235</v>
+        <v>161.5659892339441</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2056264681708</v>
+        <v>210.8745129615915</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834348003</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522799</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522799</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="V11" t="n">
-        <v>204.5001989138254</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="W11" t="n">
-        <v>135.4122938753708</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="X11" t="n">
-        <v>135.4122938753708</v>
+        <v>270.9970995811507</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.55966711750014</v>
+        <v>270.9970995811507</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452092</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452092</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452092</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452092</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452092</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452092</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452092</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291706</v>
+        <v>50.92431750291717</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711512</v>
+        <v>37.32966388711517</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C13" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D13" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G13" t="n">
-        <v>55.72441237159525</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H13" t="n">
-        <v>55.72441237159525</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I13" t="n">
-        <v>55.72441237159525</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J13" t="n">
-        <v>55.72441237159525</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K13" t="n">
-        <v>55.72441237159525</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L13" t="n">
-        <v>96.82604910443203</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M13" t="n">
-        <v>164.5391048326213</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N13" t="n">
-        <v>164.5391048326213</v>
+        <v>73.18481780723477</v>
       </c>
       <c r="O13" t="n">
-        <v>164.5391048326213</v>
+        <v>126.8122337898329</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.525289518022</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.525289518022</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751568</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297647</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693358</v>
+        <v>116.701929669336</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395405</v>
+        <v>81.86725582395422</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617192</v>
+        <v>13.54144478617202</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537528</v>
+        <v>5.773428652537577</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045599</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.5838381209912</v>
+        <v>132.8212895042419</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559547</v>
+        <v>132.8212895042419</v>
       </c>
       <c r="D14" t="n">
-        <v>143.6475721559547</v>
+        <v>132.8212895042419</v>
       </c>
       <c r="E14" t="n">
-        <v>143.6475721559547</v>
+        <v>132.8212895042419</v>
       </c>
       <c r="F14" t="n">
-        <v>74.55966711750014</v>
+        <v>132.8212895042419</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045599</v>
+        <v>63.73338446578745</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J14" t="n">
-        <v>73.18481780723489</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="K14" t="n">
-        <v>115.6533719784218</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="L14" t="n">
-        <v>115.6533719784218</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="M14" t="n">
-        <v>115.6533719784218</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="N14" t="n">
-        <v>183.3664277066111</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="O14" t="n">
-        <v>251.0794834348004</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="P14" t="n">
-        <v>251.0794834348004</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.0794834348004</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834348004</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811511</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="U14" t="n">
-        <v>237.6717431594457</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="V14" t="n">
-        <v>237.6717431594457</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="W14" t="n">
-        <v>237.6717431594457</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="X14" t="n">
-        <v>168.5838381209912</v>
+        <v>201.9091945426964</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.5838381209912</v>
+        <v>132.8212895042419</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="I15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="J15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="K15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="L15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="M15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="N15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="O15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="P15" t="n">
-        <v>5.471762079045599</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="Q15" t="n">
         <v>57.17833035452118</v>
@@ -5391,16 +5391,16 @@
         <v>50.92431750291723</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711521</v>
+        <v>37.3296638871152</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C16" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D16" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E16" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F16" t="n">
-        <v>73.18481780723489</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4374680997845</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4374680997845</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I16" t="n">
-        <v>123.4374680997845</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J16" t="n">
-        <v>123.4374680997845</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K16" t="n">
-        <v>123.4374680997845</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L16" t="n">
-        <v>123.4374680997845</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="M16" t="n">
-        <v>123.4374680997845</v>
+        <v>126.812233789833</v>
       </c>
       <c r="N16" t="n">
-        <v>123.4374680997845</v>
+        <v>194.5252895180222</v>
       </c>
       <c r="O16" t="n">
-        <v>191.1505238279738</v>
+        <v>194.5252895180222</v>
       </c>
       <c r="P16" t="n">
-        <v>191.1505238279738</v>
+        <v>194.5252895180222</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.1505238279738</v>
+        <v>194.5252895180222</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180223</v>
+        <v>194.5252895180222</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751573</v>
+        <v>194.0958916751572</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297652</v>
+        <v>184.9760178297651</v>
       </c>
       <c r="U16" t="n">
         <v>116.7019296693362</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395432</v>
+        <v>81.86725582395431</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617209</v>
+        <v>13.54144478617208</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537614</v>
+        <v>5.773428652537609</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278998</v>
+        <v>183.0075687278991</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436694</v>
+        <v>166.3863781436687</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345342</v>
+        <v>160.2504026345334</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832889</v>
+        <v>127.3333129832881</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673681</v>
+        <v>69.99619532673685</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="I17" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="J17" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="K17" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="L17" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="M17" t="n">
-        <v>89.96361064580665</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="N17" t="n">
-        <v>89.96361064580665</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="O17" t="n">
-        <v>89.96361064580665</v>
+        <v>22.25055491761729</v>
       </c>
       <c r="P17" t="n">
-        <v>89.96361064580665</v>
+        <v>89.96361064580651</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.96361064580665</v>
+        <v>157.6766663739957</v>
       </c>
       <c r="R17" t="n">
-        <v>157.6766663739959</v>
+        <v>157.6766663739957</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8750482240907</v>
+        <v>225.3897221021849</v>
       </c>
       <c r="T17" t="n">
-        <v>273.58810395228</v>
+        <v>225.3897221021849</v>
       </c>
       <c r="U17" t="n">
-        <v>273.58810395228</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V17" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W17" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522796</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152954</v>
+        <v>253.0512533152949</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994558</v>
+        <v>216.5290767994552</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278995</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436692</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345341</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
-        <v>127.333312983289</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673687</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761729</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I20" t="n">
-        <v>89.9636106458066</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="J20" t="n">
-        <v>157.6766663739959</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="K20" t="n">
-        <v>157.6766663739959</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="L20" t="n">
-        <v>157.6766663739959</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="M20" t="n">
-        <v>157.6766663739959</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="N20" t="n">
-        <v>184.0981217008359</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="O20" t="n">
-        <v>184.0981217008359</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="P20" t="n">
-        <v>184.0981217008359</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="Q20" t="n">
-        <v>184.0981217008359</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="R20" t="n">
-        <v>184.0981217008359</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="S20" t="n">
-        <v>184.0981217008359</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="T20" t="n">
-        <v>251.8111774290252</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290252</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522801</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152953</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994556</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687279002</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436698</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345345</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E23" t="n">
-        <v>127.333312983289</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
-        <v>69.99619532673687</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
-        <v>5.471762079045601</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I23" t="n">
-        <v>5.471762079045601</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="J23" t="n">
-        <v>5.471762079045601</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="K23" t="n">
-        <v>5.471762079045601</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="L23" t="n">
-        <v>5.471762079045601</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="M23" t="n">
-        <v>73.18481780723492</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="N23" t="n">
-        <v>73.18481780723492</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="O23" t="n">
-        <v>73.18481780723492</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="P23" t="n">
-        <v>73.18481780723492</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.18481780723492</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="R23" t="n">
-        <v>138.1619924959014</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8750482240907</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="T23" t="n">
-        <v>273.5881039522801</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522801</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522801</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522805</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X23" t="n">
-        <v>253.0512533152959</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994563</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045601</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6221,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>113.2107086251375</v>
+        <v>322.88141175434</v>
       </c>
       <c r="K26" t="n">
-        <v>370.4670879444869</v>
+        <v>385.3421263187572</v>
       </c>
       <c r="L26" t="n">
-        <v>370.4670879444869</v>
+        <v>657.3864604508528</v>
       </c>
       <c r="M26" t="n">
-        <v>799.4420883925497</v>
+        <v>1018.981883900365</v>
       </c>
       <c r="N26" t="n">
-        <v>875.4957014630942</v>
+        <v>1095.035496970909</v>
       </c>
       <c r="O26" t="n">
-        <v>1304.470701911157</v>
+        <v>1340.299106447664</v>
       </c>
       <c r="P26" t="n">
-        <v>1694.819024691905</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q26" t="n">
-        <v>1694.819024691905</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R26" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6294,40 +6294,40 @@
         <v>34.66464650085356</v>
       </c>
       <c r="G27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="H27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="I27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S27" t="n">
         <v>78.59820166294284</v>
@@ -6379,25 +6379,25 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I28" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K28" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L28" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M28" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N28" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923731</v>
       </c>
       <c r="C29" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847835</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522888</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776839</v>
       </c>
       <c r="F29" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977726</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,34 +6458,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034306</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J29" t="n">
-        <v>322.8814117543399</v>
+        <v>322.1192564786717</v>
       </c>
       <c r="K29" t="n">
-        <v>703.7901221729824</v>
+        <v>718.3200878263601</v>
       </c>
       <c r="L29" t="n">
-        <v>764.6154369084886</v>
+        <v>990.3644219584559</v>
       </c>
       <c r="M29" t="n">
-        <v>764.6154369084886</v>
+        <v>990.3644219584559</v>
       </c>
       <c r="N29" t="n">
-        <v>1193.590437356551</v>
+        <v>1066.418035029001</v>
       </c>
       <c r="O29" t="n">
-        <v>1622.565437804614</v>
+        <v>1491.236994929879</v>
       </c>
       <c r="P29" t="n">
-        <v>1681.589810652004</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q29" t="n">
-        <v>1733.232325042678</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6503,10 +6503,10 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="30">
@@ -6531,52 +6531,52 @@
         <v>34.66464650085356</v>
       </c>
       <c r="G30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="I30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="J30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="K30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="L30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="M30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="N30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.9351931824676</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779437</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6595,70 +6595,70 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>88.55501451074363</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K31" t="n">
-        <v>96.91139119412414</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L31" t="n">
-        <v>96.91139119412414</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="M31" t="n">
-        <v>96.91139119412414</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="N31" t="n">
-        <v>96.91139119412414</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="P31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="R31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935659</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042657</v>
       </c>
       <c r="V31" t="n">
         <v>105.5764649300127</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335923</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923729</v>
+        <v>980.0203689923725</v>
       </c>
       <c r="C32" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847825</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522878</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776833</v>
+        <v>531.8764201776828</v>
       </c>
       <c r="F32" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977715</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>257.6973941655344</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="K32" t="n">
-        <v>653.8982255132228</v>
+        <v>463.5002213080314</v>
       </c>
       <c r="L32" t="n">
-        <v>1082.873225961285</v>
+        <v>524.3255360435378</v>
       </c>
       <c r="M32" t="n">
-        <v>1156.773091893062</v>
+        <v>865.2599175425382</v>
       </c>
       <c r="N32" t="n">
-        <v>1156.773091893062</v>
+        <v>941.3135306130829</v>
       </c>
       <c r="O32" t="n">
-        <v>1227.78012361886</v>
+        <v>941.3135306130829</v>
       </c>
       <c r="P32" t="n">
-        <v>1618.128446399608</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q32" t="n">
-        <v>1669.770960790282</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6740,7 +6740,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y32" t="n">
         <v>1144.365108087288</v>
@@ -6783,37 +6783,37 @@
         <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V33" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6838,64 +6838,64 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9541027560337</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E34" t="n">
-        <v>179.2541919291209</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F34" t="n">
-        <v>179.2541919291209</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>210.0320876678294</v>
+        <v>115.3692039270642</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678294</v>
+        <v>199.2960492560754</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="T34" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6929,40 +6929,40 @@
         <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I35" t="n">
-        <v>29.19288442180796</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J35" t="n">
-        <v>253.7010362860016</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="K35" t="n">
-        <v>338.0601530729151</v>
+        <v>168.0851468907076</v>
       </c>
       <c r="L35" t="n">
-        <v>420.7838700309178</v>
+        <v>529.3470916105809</v>
       </c>
       <c r="M35" t="n">
-        <v>516.5821381851913</v>
+        <v>625.1453597648546</v>
       </c>
       <c r="N35" t="n">
-        <v>877.8440829050649</v>
+        <v>723.0973750578956</v>
       </c>
       <c r="O35" t="n">
-        <v>970.749516853359</v>
+        <v>723.0973750578956</v>
       </c>
       <c r="P35" t="n">
-        <v>1051.672291923245</v>
+        <v>1038.141766452788</v>
       </c>
       <c r="Q35" t="n">
-        <v>1344.01817564097</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R35" t="n">
-        <v>1404.329878214239</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T35" t="n">
         <v>1459.644221090398</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="I36" t="n">
         <v>36.11675336931258</v>
@@ -7053,13 +7053,13 @@
         <v>36.11675336931258</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="J37" t="n">
-        <v>29.19288442180796</v>
+        <v>115.755581371042</v>
       </c>
       <c r="K37" t="n">
-        <v>125.825358883706</v>
+        <v>115.755581371042</v>
       </c>
       <c r="L37" t="n">
-        <v>125.825358883706</v>
+        <v>115.755581371042</v>
       </c>
       <c r="M37" t="n">
-        <v>125.825358883706</v>
+        <v>115.755581371042</v>
       </c>
       <c r="N37" t="n">
-        <v>125.825358883706</v>
+        <v>115.755581371042</v>
       </c>
       <c r="O37" t="n">
-        <v>125.825358883706</v>
+        <v>115.755581371042</v>
       </c>
       <c r="P37" t="n">
         <v>125.825358883706</v>
@@ -7132,13 +7132,13 @@
         <v>72.58466259902519</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180796</v>
+        <v>53.33506661976818</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767103</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585565</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303293</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I38" t="n">
-        <v>83.7260301037939</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J38" t="n">
-        <v>187.1045791391201</v>
+        <v>187.1045791391202</v>
       </c>
       <c r="K38" t="n">
-        <v>271.4636959260336</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L38" t="n">
-        <v>632.7256406459071</v>
+        <v>354.1874128840366</v>
       </c>
       <c r="M38" t="n">
-        <v>632.7256406459071</v>
+        <v>449.9856810383102</v>
       </c>
       <c r="N38" t="n">
-        <v>730.677655938948</v>
+        <v>547.9376963313514</v>
       </c>
       <c r="O38" t="n">
-        <v>1038.141766452788</v>
+        <v>909.1996410512248</v>
       </c>
       <c r="P38" t="n">
-        <v>1038.141766452788</v>
+        <v>1083.651845958016</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170513</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R38" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T38" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V38" t="n">
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821897</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="L39" t="n">
         <v>36.11675336931258</v>
@@ -7290,13 +7290,13 @@
         <v>36.11675336931258</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L40" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M40" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N40" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O40" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P40" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q40" t="n">
         <v>125.825358883706</v>
@@ -7369,13 +7369,13 @@
         <v>72.58466259902519</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585568</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I41" t="n">
-        <v>83.7260301037939</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J41" t="n">
-        <v>361.2064541202872</v>
+        <v>166.6388989309836</v>
       </c>
       <c r="K41" t="n">
-        <v>445.2999527950452</v>
+        <v>527.900843650857</v>
       </c>
       <c r="L41" t="n">
-        <v>763.5510118775446</v>
+        <v>889.1627883707305</v>
       </c>
       <c r="M41" t="n">
-        <v>763.5510118775446</v>
+        <v>984.9610565250041</v>
       </c>
       <c r="N41" t="n">
-        <v>861.5030271705855</v>
+        <v>1082.913071818045</v>
       </c>
       <c r="O41" t="n">
-        <v>1222.764971890459</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="P41" t="n">
-        <v>1303.687746960345</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q41" t="n">
-        <v>1377.434116294632</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T41" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V41" t="n">
         <v>1364.991781336784</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.49214658219</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,55 +7464,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S42" t="n">
         <v>36.11675336931258</v>
@@ -7527,13 +7527,13 @@
         <v>36.11675336931258</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O43" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P43" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q43" t="n">
         <v>125.825358883706</v>
@@ -7606,13 +7606,13 @@
         <v>72.58466259902519</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>840.4904359767103</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303293</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I44" t="n">
-        <v>83.7260301037939</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J44" t="n">
-        <v>187.1045791391201</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4636959260336</v>
+        <v>445.5655709072009</v>
       </c>
       <c r="L44" t="n">
-        <v>354.1874128840362</v>
+        <v>528.2892878652037</v>
       </c>
       <c r="M44" t="n">
-        <v>715.4493576039097</v>
+        <v>624.0875560194773</v>
       </c>
       <c r="N44" t="n">
-        <v>1076.711302323783</v>
+        <v>722.0395713125184</v>
       </c>
       <c r="O44" t="n">
-        <v>1169.616736272077</v>
+        <v>814.9450052608128</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.741280836226</v>
+        <v>1151.209741979115</v>
       </c>
       <c r="Q44" t="n">
-        <v>1330.487650170513</v>
+        <v>1284.724426491787</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743782</v>
+        <v>1412.697754966278</v>
       </c>
       <c r="S44" t="n">
-        <v>1437.745818867902</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="T44" t="n">
         <v>1459.644221090398</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="V45" t="n">
         <v>36.11675336931258</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="K46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="L46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="M46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="N46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="O46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="P46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.825358883706</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="R46" t="n">
-        <v>125.825358883706</v>
+        <v>86.30890885208733</v>
       </c>
       <c r="S46" t="n">
-        <v>125.825358883706</v>
+        <v>110.3259016329351</v>
       </c>
       <c r="T46" t="n">
         <v>125.825358883706</v>
@@ -7843,13 +7843,13 @@
         <v>72.58466259902519</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>50.72529803113251</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>112.6922079563327</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.11084244854393</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>172.5273183579232</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.106973240800585</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.3874936293374</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.643434336125</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>32.16080682985829</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9085,13 +9085,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.5727324697715</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41134038794555</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>196.763297732255</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M26" t="n">
-        <v>358.6617520366523</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>361.5838067901668</v>
+        <v>176.0167452029867</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.643434336125</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175266</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5727324697715</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>175.0906259651502</v>
       </c>
       <c r="K29" t="n">
-        <v>321.6646422769954</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>356.4862498762811</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>361.5838067901667</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P30" t="n">
-        <v>63.49194543544473</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>142.98242510288</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K32" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>416.5183122776044</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>287.2016629518802</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1932869030402</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>117.5962717602052</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>122.3531341705733</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>286.2718543518796</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q35" t="n">
         <v>220.8075902863009</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>63.62204576772405</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>216.7259359247939</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>94.474171552429</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10981,16 +10981,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697715</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681491</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
-        <v>237.9064061863604</v>
+        <v>295.5770605026082</v>
       </c>
       <c r="M41" t="n">
-        <v>146.3687890634114</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>271.0671825975549</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>268.1451278440404</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>86.57770300472005</v>
+        <v>257.9211733822383</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11455,19 +11455,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313838</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189314</v>
+        <v>80.13804573086161</v>
       </c>
       <c r="D11" t="n">
-        <v>69.7576828065172</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>164.6680117952762</v>
+        <v>96.27098580720643</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205296</v>
+        <v>120.4468135324598</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9592819557576</v>
+        <v>138.2802757928833</v>
       </c>
       <c r="H11" t="n">
         <v>115.1318174460265</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748824</v>
+        <v>32.99210285748831</v>
       </c>
       <c r="V11" t="n">
-        <v>41.68617157443815</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W11" t="n">
-        <v>63.6830670524734</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="X11" t="n">
         <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
-        <v>107.9929473009326</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>123.8481684135454</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
         <v>138.1547087945873</v>
@@ -23504,13 +23504,13 @@
         <v>164.6680117952763</v>
       </c>
       <c r="F14" t="n">
-        <v>120.4468135324597</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676877</v>
+        <v>127.5622559676878</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>57.45281128315209</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748833</v>
       </c>
       <c r="V14" t="n">
         <v>110.0831975625082</v>
@@ -23558,10 +23558,10 @@
         <v>132.0800930405435</v>
       </c>
       <c r="X14" t="n">
-        <v>84.01454918308828</v>
+        <v>84.01454918308835</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912247</v>
+        <v>99.84002180315477</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710441.4882067287</v>
+        <v>710441.4882067286</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710441.4882067288</v>
+        <v>710441.4882067286</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894861.5892987645</v>
+        <v>894861.5892987644</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894861.5892987645</v>
+        <v>894861.5892987642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894861.5892987645</v>
+        <v>894861.5892987644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855796.4761464784</v>
+        <v>855796.4761464783</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855796.4761464783</v>
+        <v>855796.4761464782</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855796.4761464783</v>
+        <v>855796.4761464782</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>609117.2833168055</v>
+        <v>609117.2833168051</v>
       </c>
       <c r="C2" t="n">
         <v>609117.2833168055</v>
       </c>
       <c r="D2" t="n">
-        <v>609117.2833168054</v>
+        <v>609117.2833168055</v>
       </c>
       <c r="E2" t="n">
-        <v>523904.8214025699</v>
+        <v>523904.8214025702</v>
       </c>
       <c r="F2" t="n">
-        <v>523904.8214025701</v>
+        <v>523904.8214025702</v>
       </c>
       <c r="G2" t="n">
-        <v>610439.5564612023</v>
+        <v>610439.5564612026</v>
       </c>
       <c r="H2" t="n">
+        <v>610439.5564612027</v>
+      </c>
+      <c r="I2" t="n">
         <v>610439.5564612024</v>
-      </c>
-      <c r="I2" t="n">
-        <v>610439.5564612023</v>
       </c>
       <c r="J2" t="n">
         <v>610439.5564612024</v>
@@ -26341,19 +26341,19 @@
         <v>610439.5564612026</v>
       </c>
       <c r="L2" t="n">
-        <v>610439.5564612026</v>
+        <v>610439.5564612023</v>
       </c>
       <c r="M2" t="n">
         <v>610439.5564612026</v>
       </c>
       <c r="N2" t="n">
-        <v>610439.5564612023</v>
+        <v>610439.5564612022</v>
       </c>
       <c r="O2" t="n">
-        <v>610439.5564612019</v>
+        <v>610439.5564612024</v>
       </c>
       <c r="P2" t="n">
-        <v>610439.5564612021</v>
+        <v>610439.5564612027</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.384303999</v>
+        <v>284205.3843039991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324348</v>
+        <v>105664.0744324347</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>166624.8083432523</v>
+        <v>166624.8083432522</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324348</v>
+        <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363344</v>
+        <v>17695.67856363356</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750826</v>
+        <v>71148.02019750814</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153742</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153742</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983839</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
         <v>426193.4292983838</v>
@@ -26439,25 +26439,25 @@
         <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444279</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444279</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444279</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613774</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613774</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613774</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613774</v>
+        <v>431062.8369613773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="F5" t="n">
         <v>24939.02968325744</v>
       </c>
       <c r="G5" t="n">
-        <v>36042.87102508289</v>
+        <v>36042.87102508288</v>
       </c>
       <c r="H5" t="n">
         <v>36042.87102508289</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111937.5626811139</v>
+        <v>111933.1551039655</v>
       </c>
       <c r="C6" t="n">
-        <v>111937.5626811139</v>
+        <v>111933.1551039659</v>
       </c>
       <c r="D6" t="n">
-        <v>111937.5626811137</v>
+        <v>111933.1551039659</v>
       </c>
       <c r="E6" t="n">
-        <v>-146698.2686000607</v>
+        <v>-146986.7177169226</v>
       </c>
       <c r="F6" t="n">
-        <v>137507.1157039385</v>
+        <v>137218.6665870765</v>
       </c>
       <c r="G6" t="n">
-        <v>42539.18170530081</v>
+        <v>42539.18170530117</v>
       </c>
       <c r="H6" t="n">
-        <v>148203.2561377357</v>
+        <v>148203.256137736</v>
       </c>
       <c r="I6" t="n">
-        <v>148203.2561377356</v>
+        <v>148203.2561377358</v>
       </c>
       <c r="J6" t="n">
-        <v>-38301.25798532087</v>
+        <v>-38301.25798532064</v>
       </c>
       <c r="K6" t="n">
-        <v>128323.5503579315</v>
+        <v>128323.5503579317</v>
       </c>
       <c r="L6" t="n">
-        <v>22659.47592549672</v>
+        <v>22659.47592549678</v>
       </c>
       <c r="M6" t="n">
         <v>116638.7408559656</v>
@@ -26558,10 +26558,10 @@
         <v>134334.4194195988</v>
       </c>
       <c r="O6" t="n">
-        <v>63186.39922209005</v>
+        <v>63186.39922209087</v>
       </c>
       <c r="P6" t="n">
-        <v>134334.4194195986</v>
+        <v>134334.4194195993</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>218.4500239600111</v>
       </c>
       <c r="G2" t="n">
+        <v>350.5301170005545</v>
+      </c>
+      <c r="H2" t="n">
         <v>350.5301170005546</v>
       </c>
-      <c r="H2" t="n">
-        <v>350.5301170005545</v>
-      </c>
       <c r="I2" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="J2" t="n">
         <v>221.0151182874286</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="F3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="G3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="H3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="J3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="L3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="M3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="N3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="O3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="P3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598807</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598807</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598807001</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="L4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688529</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="M2" t="n">
-        <v>22.1195982045418</v>
+        <v>22.11959820454194</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688532</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554407</v>
+        <v>110.808047655441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688529</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,25 +28111,25 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886107</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K11" t="n">
-        <v>157.9234874142801</v>
+        <v>107.1981893831474</v>
       </c>
       <c r="L11" t="n">
-        <v>159.5754064333819</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634114</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N11" t="n">
-        <v>212.5903128911102</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O11" t="n">
-        <v>212.5403234714131</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P11" t="n">
-        <v>48.7023316973689</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>218.4500239600112</v>
@@ -28138,7 +28138,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="S11" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T11" t="n">
         <v>218.4500239600112</v>
@@ -28187,34 +28187,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J12" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N12" t="n">
-        <v>118.2982863334665</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>127.2394152081628</v>
+        <v>179.4682720520774</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28260,7 +28260,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>218.4500239600112</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H13" t="n">
         <v>159.857510195687</v>
@@ -28272,25 +28272,25 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K13" t="n">
-        <v>102.5727324697715</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>143.321908230964</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681491</v>
+        <v>162.3128602648847</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>160.9208955691385</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>178.5147763948743</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28348,34 +28348,34 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766807</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K14" t="n">
-        <v>200.8210168801255</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333819</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>146.3687890634114</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>212.5903128911102</v>
+        <v>212.59031289111</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049959</v>
+        <v>106.9033501875883</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537016</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R14" t="n">
-        <v>182.2138048017996</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600111</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
         <v>218.4500239600111</v>
@@ -28421,34 +28421,34 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H15" t="n">
-        <v>108.160635135932</v>
+        <v>160.3894919798468</v>
       </c>
       <c r="I15" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J15" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2869599837862</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
         <v>127.2394152081628</v>
@@ -28494,10 +28494,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>214.5560473978745</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>218.4500239600111</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H16" t="n">
         <v>159.857510195687</v>
@@ -28509,28 +28509,28 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>74.39376306237524</v>
+        <v>170.2021294383906</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>158.2993994229826</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681491</v>
+        <v>162.3128602648848</v>
       </c>
       <c r="O16" t="n">
-        <v>175.1488145040791</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P16" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R16" t="n">
-        <v>167.8154674152069</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S16" t="n">
         <v>218.4500239600111</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="C17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="D17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="E17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="F17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="G17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="H17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="I17" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886107</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>157.9234874142801</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333819</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M17" t="n">
-        <v>214.7658150514814</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
-        <v>144.1932869030402</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169259</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537016</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.643434336125</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R17" t="n">
-        <v>250.6108307898696</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>244.3992778313396</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754986</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4421268174995</v>
+        <v>278.1304655314792</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="X17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="Y17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
     </row>
     <row r="18">
@@ -28661,31 +28661,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J18" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R18" t="n">
         <v>127.2394152081628</v>
@@ -28746,16 +28746,16 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K19" t="n">
-        <v>102.5727324697715</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L19" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O19" t="n">
         <v>106.7517885160091</v>
@@ -28764,7 +28764,7 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R19" t="n">
         <v>164.4066131828346</v>
@@ -28773,7 +28773,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T19" t="n">
-        <v>227.4786990669494</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U19" t="n">
         <v>286.0413712388358</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I20" t="n">
-        <v>256.4477569426809</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J20" t="n">
-        <v>207.1089656766807</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9234874142801</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333819</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634114</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
-        <v>170.88162561702</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169259</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537016</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.643434336125</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>182.2138048017996</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>222.4023823533042</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754986</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y20" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="21">
@@ -28898,31 +28898,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J21" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R21" t="n">
         <v>127.2394152081628</v>
@@ -28983,16 +28983,16 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K22" t="n">
-        <v>102.5727324697715</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L22" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O22" t="n">
         <v>106.7517885160091</v>
@@ -29001,7 +29001,7 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R22" t="n">
         <v>164.4066131828346</v>
@@ -29010,7 +29010,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T22" t="n">
-        <v>227.4786990669494</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U22" t="n">
         <v>286.0413712388358</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="C23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="D23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="E23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="F23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="G23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I23" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886107</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.9234874142801</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333819</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M23" t="n">
-        <v>214.7658150514814</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N23" t="n">
-        <v>144.1932869030402</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169259</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537016</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.643434336125</v>
+        <v>195.3317730501045</v>
       </c>
       <c r="R23" t="n">
-        <v>247.8473145883314</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S23" t="n">
-        <v>264.1110696273947</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754986</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="Y23" t="n">
-        <v>350.5301170005545</v>
+        <v>350.5301170005546</v>
       </c>
     </row>
     <row r="24">
@@ -29135,31 +29135,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J24" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R24" t="n">
         <v>127.2394152081628</v>
@@ -29220,16 +29220,16 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K25" t="n">
-        <v>102.5727324697715</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L25" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O25" t="n">
         <v>106.7517885160091</v>
@@ -29238,7 +29238,7 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R25" t="n">
         <v>164.4066131828346</v>
@@ -29247,7 +29247,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T25" t="n">
-        <v>227.4786990669494</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U25" t="n">
         <v>286.0413712388358</v>
@@ -29293,19 +29293,19 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I26" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0513963798066</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
-        <v>159.5754064333819</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>221.0151182874286</v>
+        <v>44.12261670512005</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
@@ -29317,13 +29317,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29366,43 +29366,43 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7848683666891</v>
+        <v>180.1621968132439</v>
       </c>
       <c r="H27" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065697</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
         <v>127.2394152081628</v>
       </c>
       <c r="S27" t="n">
-        <v>208.9118472406823</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T27" t="n">
         <v>197.4218470422748</v>
@@ -29451,31 +29451,31 @@
         <v>159.857510195687</v>
       </c>
       <c r="I28" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503208</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>210.6249805589825</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>146.8497540217934</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.02868467987662</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
@@ -29539,28 +29539,28 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>146.3687890634114</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0151182874286</v>
+        <v>182.3687158096083</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
-        <v>113.8687281338979</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29603,37 +29603,37 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>180.1621968132439</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H30" t="n">
-        <v>108.160635135932</v>
+        <v>152.5379635824868</v>
       </c>
       <c r="I30" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175266</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955204</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725129</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>21.6202642574652</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
         <v>127.2394152081628</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -29691,28 +29691,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>88.21501547915628</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503208</v>
+        <v>109.9702433086957</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O31" t="n">
-        <v>221.0151182874286</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29767,31 +29767,31 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="L32" t="n">
-        <v>176.365175416447</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
+        <v>203.5452892418344</v>
+      </c>
+      <c r="N32" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
-        <v>221.0151182874286</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
         <v>221.0151182874286</v>
@@ -29846,31 +29846,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L33" t="n">
-        <v>127.7173544000209</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398715</v>
+        <v>150.4354315864263</v>
       </c>
       <c r="R33" t="n">
         <v>127.2394152081628</v>
@@ -29910,16 +29910,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>221.0151182874286</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>221.0151182874286</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>198.7785547137071</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H34" t="n">
         <v>159.857510195687</v>
@@ -29931,25 +29931,25 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697715</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681491</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R34" t="n">
         <v>164.4066131828346</v>
@@ -30004,28 +30004,28 @@
         <v>243.1347164919705</v>
       </c>
       <c r="I35" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J35" t="n">
-        <v>243.1347164919705</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K35" t="n">
         <v>243.1347164919705</v>
       </c>
       <c r="L35" t="n">
-        <v>243.1347164919705</v>
+        <v>238.2146073541016</v>
       </c>
       <c r="M35" t="n">
         <v>243.1347164919705</v>
       </c>
       <c r="N35" t="n">
-        <v>54.26354078717623</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O35" t="n">
-        <v>243.1347164919705</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P35" t="n">
-        <v>243.1347164919705</v>
+        <v>144.950541129998</v>
       </c>
       <c r="Q35" t="n">
         <v>243.1347164919705</v>
@@ -30034,7 +30034,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="S35" t="n">
-        <v>229.4675190470645</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T35" t="n">
         <v>243.1347164919705</v>
@@ -30065,7 +30065,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>178.0193909450824</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -30083,31 +30083,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>95.82205983753794</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
         <v>127.2394152081628</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30165,28 +30165,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>74.71172711439594</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>200.1812925322948</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O37" t="n">
         <v>106.7517885160091</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>120.2892428438388</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30195,7 +30195,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T37" t="n">
-        <v>227.4786990669494</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U37" t="n">
         <v>243.1347164919705</v>
@@ -30210,7 +30210,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="38">
@@ -30253,19 +30253,19 @@
         <v>243.1347164919705</v>
       </c>
       <c r="M38" t="n">
-        <v>82.74674329568734</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N38" t="n">
         <v>243.1347164919705</v>
       </c>
       <c r="O38" t="n">
+        <v>118.16971057627</v>
+      </c>
+      <c r="P38" t="n">
         <v>243.1347164919705</v>
       </c>
-      <c r="P38" t="n">
-        <v>161.3945396537016</v>
-      </c>
       <c r="Q38" t="n">
-        <v>243.1347164919705</v>
+        <v>128.8198625460608</v>
       </c>
       <c r="R38" t="n">
         <v>243.1347164919705</v>
@@ -30320,31 +30320,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L39" t="n">
-        <v>90.33383297114752</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
         <v>127.2394152081628</v>
@@ -30368,7 +30368,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>210.6649584362675</v>
       </c>
     </row>
     <row r="40">
@@ -30405,16 +30405,16 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>199.4136635128441</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O40" t="n">
         <v>106.7517885160091</v>
@@ -30423,7 +30423,7 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.9853613927382</v>
+        <v>228.5939214552614</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
@@ -30432,7 +30432,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T40" t="n">
-        <v>227.4786990669494</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U40" t="n">
         <v>243.1347164919705</v>
@@ -30481,16 +30481,16 @@
         <v>243.1347164919705</v>
       </c>
       <c r="J41" t="n">
+        <v>46.60183246237077</v>
+      </c>
+      <c r="K41" t="n">
+        <v>185.723313612868</v>
+      </c>
+      <c r="L41" t="n">
+        <v>228.9094012033731</v>
+      </c>
+      <c r="M41" t="n">
         <v>243.1347164919705</v>
-      </c>
-      <c r="K41" t="n">
-        <v>242.8664153685811</v>
-      </c>
-      <c r="L41" t="n">
-        <v>243.1347164919705</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>243.1347164919705</v>
@@ -30508,7 +30508,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T41" t="n">
         <v>243.1347164919705</v>
@@ -30551,43 +30551,43 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>142.7786753843705</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H42" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J42" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725129</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398715</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
         <v>127.2394152081628</v>
       </c>
       <c r="S42" t="n">
-        <v>164.5345187941275</v>
+        <v>171.5283258118089</v>
       </c>
       <c r="T42" t="n">
         <v>197.4218470422748</v>
@@ -30639,28 +30639,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>74.71172711439594</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697715</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O43" t="n">
-        <v>204.3603485785324</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.9853613927382</v>
+        <v>228.5939214552614</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30669,7 +30669,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T43" t="n">
-        <v>227.4786990669494</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U43" t="n">
         <v>243.1347164919705</v>
@@ -30730,16 +30730,16 @@
         <v>243.1347164919705</v>
       </c>
       <c r="N44" t="n">
-        <v>54.26354078717623</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919705</v>
       </c>
       <c r="P44" t="n">
-        <v>162.8214271178186</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.1347164919705</v>
+        <v>82.69916173939127</v>
       </c>
       <c r="R44" t="n">
         <v>243.1347164919705</v>
@@ -30748,7 +30748,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="T44" t="n">
-        <v>243.1347164919705</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U44" t="n">
         <v>243.1347164919705</v>
@@ -30794,31 +30794,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.8282528198565</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065697</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346608</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175266</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955204</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O45" t="n">
-        <v>89.31755892493273</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290991</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.0581031398715</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>127.2394152081628</v>
@@ -30833,7 +30833,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W45" t="n">
         <v>243.1347164919705</v>
@@ -30879,34 +30879,34 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>200.1812925322948</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503208</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681491</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P46" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.9853613927382</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R46" t="n">
-        <v>164.4066131828346</v>
+        <v>205.1052105931525</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T46" t="n">
-        <v>227.4786990669494</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U46" t="n">
         <v>243.1347164919705</v>
@@ -30918,7 +30918,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J11" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S11" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H12" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M12" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T12" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R13" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J14" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S14" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H15" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M15" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T15" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R16" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J17" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S17" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H18" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M18" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T18" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R19" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J20" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S20" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H21" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M21" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T21" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R22" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J23" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S23" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H24" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M24" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T24" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R25" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J26" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S26" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H27" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M27" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T27" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J29" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S29" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H30" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M30" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T30" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R31" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J32" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S32" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H33" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M33" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T33" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R34" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J35" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S35" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H36" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M36" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T36" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R37" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J38" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S38" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H39" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M39" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T39" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R40" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J41" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S41" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H42" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M42" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T42" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R43" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.445459488062073</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115706</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351309</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J44" t="n">
-        <v>37.8078172249084</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457596</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235564</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317953</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363591</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921866</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768623</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146322</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697922</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S44" t="n">
-        <v>10.1509080842145</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991726</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496583</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532122</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H45" t="n">
-        <v>2.30188038620076</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143491</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967783</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934304</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191127</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M45" t="n">
-        <v>60.3903859722152</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169794</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608202</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606207</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399951</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670207</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516898</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T45" t="n">
-        <v>0.960684865993868</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218502</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540734</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229854</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593411</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338299</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650053</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388652</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906171</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678746</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453759</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111447</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597155</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R46" t="n">
-        <v>8.9845344869477</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975079</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583136</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840402</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540028</v>
+        <v>30.39929300540026</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>58.87461752662939</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>63.24947965448722</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.80658962388618</v>
+        <v>49.80658962388623</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821161</v>
+        <v>63.34706160675556</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068647</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52.22885684391447</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>52.22885684391465</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.76025282075722</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>41.51680478064321</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>54.1691070531294</v>
       </c>
       <c r="P13" t="n">
-        <v>30.28907543979831</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K14" t="n">
-        <v>42.89752946584539</v>
+        <v>65.63350978653176</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="O14" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,10 +35668,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068639</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>52.22885684391474</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.22885684391473</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35790,10 +35790,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>50.76025282075714</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>54.16910705312949</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="O16" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.408854232372242</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451691</v>
+        <v>16.94827559451686</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,25 +35899,25 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.68523419201488</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>26.68833871397969</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.99689547803519</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,13 +36112,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451686</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I20" t="n">
-        <v>68.39702598807</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J20" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,13 +36130,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>26.68833871397977</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>26.68833871397954</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="V20" t="n">
-        <v>21.99689547803519</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36364,34 +36364,34 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>68.39702598807001</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>26.68833871397954</v>
       </c>
       <c r="R23" t="n">
-        <v>65.63350978653182</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.39702598807001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598807001</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J26" t="n">
-        <v>79.33945669119589</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>259.8549286054035</v>
+        <v>63.09163087314866</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>274.7922566990866</v>
       </c>
       <c r="M26" t="n">
-        <v>433.3080812606695</v>
+        <v>365.2479024742547</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438836</v>
+        <v>76.82183138438853</v>
       </c>
       <c r="O26" t="n">
-        <v>433.3080812606695</v>
+        <v>247.7410196734896</v>
       </c>
       <c r="P26" t="n">
-        <v>394.291235132069</v>
+        <v>59.62057863372718</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562901</v>
+        <v>38.80131348562908</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36662,7 +36662,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.2656374186184</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>103.8731920429734</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>177.1388294615917</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281768</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J29" t="n">
-        <v>258.1636583777746</v>
+        <v>257.3938045639682</v>
       </c>
       <c r="K29" t="n">
-        <v>384.7562731501439</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404669</v>
+        <v>274.7922566990866</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606694</v>
+        <v>76.82183138438856</v>
       </c>
       <c r="O29" t="n">
-        <v>433.3080812606694</v>
+        <v>429.1100605059377</v>
       </c>
       <c r="P29" t="n">
-        <v>59.62057863372704</v>
+        <v>59.62057863372721</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.16415595017583</v>
+        <v>52.37168395130371</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.30107464810392</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36899,10 +36899,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>44.37732844655475</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>13.50328836476033</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.44078452866718</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>177.1388294615916</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>114.2633297714195</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281769</v>
       </c>
       <c r="J32" t="n">
-        <v>225.2856037016979</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>400.2028599471599</v>
+        <v>400.20285994716</v>
       </c>
       <c r="L32" t="n">
-        <v>433.3080812606694</v>
+        <v>61.43971185404682</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401722</v>
+        <v>344.3781631303034</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>76.8218313843885</v>
       </c>
       <c r="O32" t="n">
-        <v>71.72427447050271</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>394.291235132069</v>
+        <v>394.2912351320691</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.16415595017583</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562901</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810387</v>
+        <v>25.30107464810386</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37206,16 +37206,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>72.00955177290925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>74.04049411422943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>31.0887835744531</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.51975497597034</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.77459124142541</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>10.84448324419614</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J35" t="n">
-        <v>226.775910973933</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769039</v>
+        <v>85.21122907769052</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858855</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855908</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N35" t="n">
-        <v>364.9110552725995</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504457</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826889</v>
+        <v>318.2266579746386</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.2988724421463</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017087</v>
+        <v>60.92091169017094</v>
       </c>
       <c r="S35" t="n">
-        <v>33.75347540773978</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T35" t="n">
         <v>22.11959820454184</v>
@@ -37361,7 +37361,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.05102500128666</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.60856006252331</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>10.17149243703441</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>24.38604262420225</v>
       </c>
     </row>
     <row r="38">
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735954</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769039</v>
+        <v>85.21122907769052</v>
       </c>
       <c r="L38" t="n">
-        <v>364.9110552725995</v>
+        <v>83.55931005858871</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893022</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O38" t="n">
-        <v>310.5698085998384</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>176.214348390698</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.2988724421463</v>
+        <v>180.9840184962368</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017087</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264573</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T38" t="n">
         <v>22.11959820454184</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37664,7 +37664,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
     </row>
     <row r="40">
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.60856006252331</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.60856006252332</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735954</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J41" t="n">
-        <v>280.2832565823164</v>
+        <v>83.75037255271684</v>
       </c>
       <c r="K41" t="n">
-        <v>84.942927954301</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="L41" t="n">
-        <v>321.465716244949</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893022</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O41" t="n">
-        <v>364.9110552725995</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P41" t="n">
-        <v>81.74017683826889</v>
+        <v>81.74017683826904</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584543</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017087</v>
+        <v>60.92091169017094</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T41" t="n">
         <v>22.11959820454184</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.60856006252331</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.60856006252332</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735954</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769039</v>
+        <v>85.21122907769052</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858855</v>
+        <v>83.55931005858871</v>
       </c>
       <c r="M44" t="n">
-        <v>364.9110552725995</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N44" t="n">
-        <v>364.9110552725995</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504457</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P44" t="n">
-        <v>88.00459046883704</v>
+        <v>339.6613502205074</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584543</v>
+        <v>134.8633176895672</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017087</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264573</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454184</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.60856006252331</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>40.69859741031795</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>24.25958866752303</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>15.65601742502112</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.99435655966121</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
